--- a/scripts/tracker.xlsx
+++ b/scripts/tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>home_team</t>
   </si>
@@ -79,6 +79,51 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>No bet</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -439,17 +484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -461,15 +507,15 @@
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -504,16 +550,19 @@
       <c r="N1" t="s">
         <v>17</v>
       </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
         <v>44632</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>0.37473405956953898</v>
@@ -546,16 +595,23 @@
       <c r="M2" s="2">
         <v>10</v>
       </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <f>IF(N2="Y",(K2-1)*M2)</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
         <v>44632</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>0.460893110154872</v>
@@ -582,22 +638,29 @@
         <v>2.8</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L4" si="0">IF(J3="H",(K3-F3)/F3,(K3-G3)/G3)</f>
+        <f t="shared" ref="L3:L10" si="0">IF(J3="H",(K3-F3)/F3,(K3-G3)/G3)</f>
         <v>0.50949929156636098</v>
       </c>
       <c r="M3" s="2">
         <v>10</v>
       </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O4" si="1">IF(N3="Y",(K3-1)*M3)</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
         <v>44632</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>0.43110056625537002</v>
@@ -628,6 +691,245 @@
         <v>0.28002372592541952</v>
       </c>
       <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44633</v>
+      </c>
+      <c r="D5">
+        <v>0.49559511895312702</v>
+      </c>
+      <c r="E5">
+        <v>0.50440488104687298</v>
+      </c>
+      <c r="F5">
+        <v>2.0177761276429802</v>
+      </c>
+      <c r="G5">
+        <v>1.98253434408592</v>
+      </c>
+      <c r="H5">
+        <v>2.21955374040727</v>
+      </c>
+      <c r="I5">
+        <v>2.1807877784945102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>4.75</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3959231849726494</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44633</v>
+      </c>
+      <c r="D6">
+        <v>0.60631574601563398</v>
+      </c>
+      <c r="E6">
+        <v>0.39368425398436602</v>
+      </c>
+      <c r="F6">
+        <v>1.6493056737705301</v>
+      </c>
+      <c r="G6">
+        <v>2.5401066714741201</v>
+      </c>
+      <c r="H6">
+        <v>1.8142362411475901</v>
+      </c>
+      <c r="I6">
+        <v>2.7941173386215299</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44633</v>
+      </c>
+      <c r="D7">
+        <v>0.513614622593765</v>
+      </c>
+      <c r="E7">
+        <v>0.486385377406235</v>
+      </c>
+      <c r="F7">
+        <v>1.9469850662545001</v>
+      </c>
+      <c r="G7">
+        <v>2.0559828614353899</v>
+      </c>
+      <c r="H7">
+        <v>2.1416835728799501</v>
+      </c>
+      <c r="I7">
+        <v>2.2615811475789198</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>3.3</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60507174544057052</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44633</v>
+      </c>
+      <c r="D8">
+        <v>0.69072498309998098</v>
+      </c>
+      <c r="E8">
+        <v>0.30927501690001902</v>
+      </c>
+      <c r="F8">
+        <v>1.4477542067640099</v>
+      </c>
+      <c r="G8">
+        <v>3.2333681848064502</v>
+      </c>
+      <c r="H8">
+        <v>1.5925296274404199</v>
+      </c>
+      <c r="I8">
+        <v>3.5567050032870999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44633</v>
+      </c>
+      <c r="D9">
+        <v>0.37189853993368899</v>
+      </c>
+      <c r="E9">
+        <v>0.62810146006631096</v>
+      </c>
+      <c r="F9">
+        <v>2.6889054207588599</v>
+      </c>
+      <c r="G9">
+        <v>1.5920994673287701</v>
+      </c>
+      <c r="H9">
+        <v>2.9577959628347399</v>
+      </c>
+      <c r="I9">
+        <v>1.7513094140616501</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>2.6</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63306379617241437</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44633</v>
+      </c>
+      <c r="D10">
+        <v>0.63227249002628405</v>
+      </c>
+      <c r="E10">
+        <v>0.367727509973716</v>
+      </c>
+      <c r="F10">
+        <v>1.58159656757869</v>
+      </c>
+      <c r="G10">
+        <v>2.7194049204300099</v>
+      </c>
+      <c r="H10">
+        <v>1.7397562243365501</v>
+      </c>
+      <c r="I10">
+        <v>2.9913454124730201</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28704628490800749</v>
+      </c>
+      <c r="M10" s="2">
         <v>10</v>
       </c>
     </row>
